--- a/Assignment 1/final_plot-learn.xlsx
+++ b/Assignment 1/final_plot-learn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D755C4-F197-45F9-9A3C-D215C5077C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F3F49-85EE-4943-B1CD-8816E5291780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -50,13 +50,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -64,7 +64,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -72,7 +72,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -81,7 +81,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -90,7 +90,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -99,7 +99,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -107,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -115,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -123,7 +123,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -131,7 +131,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -140,7 +140,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -149,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -157,7 +157,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -166,7 +166,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -174,7 +174,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -183,7 +183,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -192,7 +192,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -200,7 +200,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -562,52 +562,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,7 +625,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -659,7 +659,7 @@
               <a:rPr lang="th-TH" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>แผนภูมิแท่งเปรียบเทียบควาแม่นยำ</a:t>
+              <a:t>ตารางเปรียบเทียบควาแม่นยำ</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -689,7 +689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -751,7 +751,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -881,7 +881,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1037,7 +1037,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1075,7 +1075,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="242337551"/>
@@ -1164,7 +1164,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1196,7 +1196,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404443631"/>
@@ -1238,7 +1238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1275,7 +1275,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1289,7 +1289,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1325,6 +1325,32 @@
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ของ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Learning Rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t>ที่ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -1352,7 +1378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5291,7 +5317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5329,7 +5355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239252239"/>
@@ -5414,7 +5440,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5446,7 +5472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390496207"/>
@@ -5488,7 +5514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5525,7 +5551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5539,7 +5565,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5602,7 +5628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5664,7 +5690,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5794,7 +5820,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5945,7 +5971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5983,7 +6009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89901535"/>
@@ -6066,7 +6092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6098,7 +6124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88875295"/>
@@ -6140,7 +6166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6177,7 +6203,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7944,7 +7970,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8242,13 +8268,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8260,7 +8286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.1</v>
       </c>
@@ -8291,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.5</v>
       </c>
@@ -8341,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>1</v>
@@ -8392,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1.5</v>
       </c>
@@ -8442,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -8478,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J8" s="1">
         <v>4</v>
       </c>
@@ -8514,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J9" s="1">
         <v>5</v>
       </c>
@@ -8550,7 +8576,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" s="1">
         <v>6</v>
       </c>
@@ -8586,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" s="1">
         <v>7</v>
       </c>
@@ -8622,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J12" s="1">
         <v>8</v>
       </c>
@@ -8658,7 +8684,7 @@
         <v>0.64935064935064934</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J13" s="1">
         <v>9</v>
       </c>
@@ -8694,7 +8720,7 @@
         <v>1.2903225806451613</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J14" s="1">
         <v>10</v>
       </c>
@@ -8730,7 +8756,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J15" s="1">
         <v>11</v>
       </c>
@@ -8766,7 +8792,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J16" s="1">
         <v>12</v>
       </c>
@@ -8802,7 +8828,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="17" spans="10:19">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J17" s="1">
         <v>13</v>
       </c>
@@ -8838,7 +8864,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="18" spans="10:19">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J18" s="1">
         <v>14</v>
       </c>
@@ -8874,7 +8900,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="19" spans="10:19">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J19" s="1">
         <v>15</v>
       </c>
@@ -8910,7 +8936,7 @@
         <v>6.0975609756097562</v>
       </c>
     </row>
-    <row r="20" spans="10:19">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J20" s="1">
         <v>16</v>
       </c>
@@ -8946,7 +8972,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="21" spans="10:19">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J21" s="1">
         <v>17</v>
       </c>
@@ -8982,7 +9008,7 @@
         <v>7.1428571428571432</v>
       </c>
     </row>
-    <row r="22" spans="10:19">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J22" s="1">
         <v>18</v>
       </c>
@@ -9018,7 +9044,7 @@
         <v>9.8837209302325579</v>
       </c>
     </row>
-    <row r="23" spans="10:19">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J23" s="1">
         <v>19</v>
       </c>
@@ -9054,7 +9080,7 @@
         <v>12.921348314606741</v>
       </c>
     </row>
-    <row r="24" spans="10:19">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J24" s="1">
         <v>20</v>
       </c>
@@ -9090,7 +9116,7 @@
         <v>16.48936170212766</v>
       </c>
     </row>
-    <row r="25" spans="10:19">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J25" s="1">
         <v>21</v>
       </c>
@@ -9126,7 +9152,7 @@
         <v>9.8958333333333339</v>
       </c>
     </row>
-    <row r="26" spans="10:19">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J26" s="1">
         <v>22</v>
       </c>
@@ -9162,7 +9188,7 @@
         <v>2.4154589371980677</v>
       </c>
     </row>
-    <row r="27" spans="10:19">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J27" s="1">
         <v>23</v>
       </c>
@@ -9198,7 +9224,7 @@
         <v>0.8928571428571429</v>
       </c>
     </row>
-    <row r="28" spans="10:19">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J28" s="1">
         <v>24</v>
       </c>
@@ -9234,7 +9260,7 @@
         <v>2.109704641350211</v>
       </c>
     </row>
-    <row r="29" spans="10:19">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J29" s="1">
         <v>25</v>
       </c>
@@ -9270,7 +9296,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="30" spans="10:19">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J30" s="1">
         <v>26</v>
       </c>
@@ -9306,7 +9332,7 @@
         <v>0.77220077220077221</v>
       </c>
     </row>
-    <row r="31" spans="10:19">
+    <row r="31" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J31" s="1">
         <v>27</v>
       </c>
@@ -9342,7 +9368,7 @@
         <v>0.7407407407407407</v>
       </c>
     </row>
-    <row r="32" spans="10:19">
+    <row r="32" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J32" s="1">
         <v>28</v>
       </c>
@@ -9378,7 +9404,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J33" s="1">
         <v>29</v>
       </c>
@@ -9414,7 +9440,7 @@
         <v>2.4137931034482758</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J34" s="1">
         <v>30</v>
       </c>
@@ -9450,7 +9476,7 @@
         <v>2.0202020202020203</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J35" s="1">
         <v>31</v>
       </c>
@@ -9486,7 +9512,7 @@
         <v>1.6501650165016502</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J36" s="1">
         <v>32</v>
       </c>
@@ -9522,7 +9548,7 @@
         <v>1.2738853503184713</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J37" s="1">
         <v>33</v>
       </c>
@@ -9558,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J38" s="1">
         <v>34</v>
       </c>
@@ -9594,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J39" s="1">
         <v>35</v>
       </c>
@@ -9630,7 +9656,7 @@
         <v>0.27624309392265195</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J40" s="1">
         <v>36</v>
       </c>
@@ -9666,7 +9692,7 @@
         <v>2.0512820512820511</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J41" s="1">
         <v>37</v>
       </c>
@@ -9702,7 +9728,7 @@
         <v>0.4854368932038835</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
@@ -9747,7 +9773,7 @@
         <v>0.22988505747126436</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.1</v>
       </c>
@@ -9796,7 +9822,7 @@
         <v>1.5659955257270695</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0.5</v>
       </c>
@@ -9848,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -9903,7 +9929,7 @@
         <v>0.42735042735042733</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1.5</v>
       </c>
@@ -9958,7 +9984,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J47" s="1">
         <v>43</v>
       </c>
@@ -9994,7 +10020,7 @@
         <v>0.84745762711864403</v>
       </c>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>0.5</v>
       </c>
@@ -10033,7 +10059,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="49" spans="6:19">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F49" s="1">
         <v>97</v>
       </c>
@@ -10075,7 +10101,7 @@
         <v>0.41841004184100417</v>
       </c>
     </row>
-    <row r="50" spans="6:19">
+    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F50" s="1">
         <v>2</v>
       </c>
@@ -10117,7 +10143,7 @@
         <v>0.41580041580041582</v>
       </c>
     </row>
-    <row r="51" spans="6:19">
+    <row r="51" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J51" s="1">
         <v>47</v>
       </c>
@@ -10153,7 +10179,7 @@
         <v>0.6211180124223602</v>
       </c>
     </row>
-    <row r="52" spans="6:19">
+    <row r="52" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>1</v>
       </c>
@@ -10192,7 +10218,7 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="53" spans="6:19">
+    <row r="53" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F53" s="1">
         <v>94</v>
       </c>
@@ -10234,7 +10260,7 @@
         <v>0.82304526748971196</v>
       </c>
     </row>
-    <row r="54" spans="6:19">
+    <row r="54" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F54" s="1">
         <v>5</v>
       </c>
@@ -10276,7 +10302,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="55" spans="6:19">
+    <row r="55" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J55" s="1">
         <v>51</v>
       </c>
@@ -10312,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:19">
+    <row r="56" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>1.5</v>
       </c>
@@ -10351,7 +10377,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="57" spans="6:19">
+    <row r="57" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F57" s="1">
         <v>96</v>
       </c>
@@ -10393,7 +10419,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="58" spans="6:19">
+    <row r="58" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F58" s="1">
         <v>4</v>
       </c>
@@ -10435,7 +10461,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="59" spans="6:19">
+    <row r="59" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J59" s="1">
         <v>55</v>
       </c>
@@ -10471,7 +10497,7 @@
         <v>0.40816326530612246</v>
       </c>
     </row>
-    <row r="60" spans="6:19">
+    <row r="60" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J60" s="1">
         <v>56</v>
       </c>
@@ -10507,7 +10533,7 @@
         <v>0.40816326530612246</v>
       </c>
     </row>
-    <row r="61" spans="6:19">
+    <row r="61" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J61" s="1">
         <v>57</v>
       </c>
@@ -10543,7 +10569,7 @@
         <v>0.40816326530612246</v>
       </c>
     </row>
-    <row r="62" spans="6:19">
+    <row r="62" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J62" s="1">
         <v>58</v>
       </c>
@@ -10579,7 +10605,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="63" spans="6:19">
+    <row r="63" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J63" s="1">
         <v>59</v>
       </c>
@@ -10615,7 +10641,7 @@
         <v>0.81632653061224492</v>
       </c>
     </row>
-    <row r="64" spans="6:19">
+    <row r="64" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J64" s="1">
         <v>60</v>
       </c>
@@ -10651,7 +10677,7 @@
         <v>0.81799591002044991</v>
       </c>
     </row>
-    <row r="65" spans="10:19">
+    <row r="65" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J65" s="1">
         <v>61</v>
       </c>
@@ -10687,7 +10713,7 @@
         <v>0.81967213114754101</v>
       </c>
     </row>
-    <row r="66" spans="10:19">
+    <row r="66" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J66" s="1">
         <v>62</v>
       </c>
@@ -10723,7 +10749,7 @@
         <v>0.61728395061728392</v>
       </c>
     </row>
-    <row r="67" spans="10:19">
+    <row r="67" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J67" s="1">
         <v>63</v>
       </c>
@@ -10759,7 +10785,7 @@
         <v>0.41322314049586778</v>
       </c>
     </row>
-    <row r="68" spans="10:19">
+    <row r="68" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J68" s="1">
         <v>64</v>
       </c>
@@ -10795,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="10:19">
+    <row r="69" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J69" s="1">
         <v>65</v>
       </c>
@@ -10831,7 +10857,7 @@
         <v>0.62761506276150625</v>
       </c>
     </row>
-    <row r="70" spans="10:19">
+    <row r="70" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J70" s="1">
         <v>66</v>
       </c>
@@ -10867,7 +10893,7 @@
         <v>1.0526315789473684</v>
       </c>
     </row>
-    <row r="71" spans="10:19">
+    <row r="71" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J71" s="1">
         <v>67</v>
       </c>
@@ -10903,7 +10929,7 @@
         <v>1.9148936170212767</v>
       </c>
     </row>
-    <row r="72" spans="10:19">
+    <row r="72" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J72" s="1">
         <v>68</v>
       </c>
@@ -10939,7 +10965,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="73" spans="10:19">
+    <row r="73" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J73" s="1">
         <v>69</v>
       </c>
@@ -10975,7 +11001,7 @@
         <v>2.3706896551724137</v>
       </c>
     </row>
-    <row r="74" spans="10:19">
+    <row r="74" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J74" s="1">
         <v>70</v>
       </c>
@@ -11011,7 +11037,7 @@
         <v>2.8260869565217392</v>
       </c>
     </row>
-    <row r="75" spans="10:19">
+    <row r="75" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J75" s="1">
         <v>71</v>
       </c>
@@ -11047,7 +11073,7 @@
         <v>2.6315789473684212</v>
       </c>
     </row>
-    <row r="76" spans="10:19">
+    <row r="76" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J76" s="1">
         <v>72</v>
       </c>
@@ -11083,7 +11109,7 @@
         <v>1.5521064301552105</v>
       </c>
     </row>
-    <row r="77" spans="10:19">
+    <row r="77" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J77" s="1">
         <v>73</v>
       </c>
@@ -11119,7 +11145,7 @@
         <v>0.8928571428571429</v>
       </c>
     </row>
-    <row r="78" spans="10:19">
+    <row r="78" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J78" s="1">
         <v>74</v>
       </c>
@@ -11155,7 +11181,7 @@
         <v>0.90090090090090091</v>
       </c>
     </row>
-    <row r="79" spans="10:19">
+    <row r="79" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J79" s="1">
         <v>75</v>
       </c>
@@ -11191,7 +11217,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="80" spans="10:19">
+    <row r="80" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J80" s="1">
         <v>76</v>
       </c>
@@ -11227,7 +11253,7 @@
         <v>0.91743119266055051</v>
       </c>
     </row>
-    <row r="81" spans="10:19">
+    <row r="81" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J81" s="1">
         <v>77</v>
       </c>
@@ -11263,7 +11289,7 @@
         <v>1.160092807424594</v>
       </c>
     </row>
-    <row r="82" spans="10:19">
+    <row r="82" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J82" s="1">
         <v>78</v>
       </c>
@@ -11299,7 +11325,7 @@
         <v>0.93676814988290402</v>
       </c>
     </row>
-    <row r="83" spans="10:19">
+    <row r="83" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J83" s="1">
         <v>79</v>
       </c>
@@ -11335,7 +11361,7 @@
         <v>0.94786729857819907</v>
       </c>
     </row>
-    <row r="84" spans="10:19">
+    <row r="84" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J84" s="1">
         <v>80</v>
       </c>
@@ -11371,7 +11397,7 @@
         <v>1.4423076923076923</v>
       </c>
     </row>
-    <row r="85" spans="10:19">
+    <row r="85" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J85" s="1">
         <v>81</v>
       </c>
@@ -11407,7 +11433,7 @@
         <v>1.4634146341463414</v>
       </c>
     </row>
-    <row r="86" spans="10:19">
+    <row r="86" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J86" s="1">
         <v>82</v>
       </c>
@@ -11443,7 +11469,7 @@
         <v>1.4851485148514851</v>
       </c>
     </row>
-    <row r="87" spans="10:19">
+    <row r="87" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J87" s="1">
         <v>83</v>
       </c>
@@ -11479,7 +11505,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="88" spans="10:19">
+    <row r="88" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J88" s="1">
         <v>84</v>
       </c>
@@ -11515,7 +11541,7 @@
         <v>2.0512820512820511</v>
       </c>
     </row>
-    <row r="89" spans="10:19">
+    <row r="89" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J89" s="1">
         <v>85</v>
       </c>
@@ -11551,7 +11577,7 @@
         <v>2.6178010471204187</v>
       </c>
     </row>
-    <row r="90" spans="10:19">
+    <row r="90" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J90" s="1">
         <v>86</v>
       </c>
@@ -11587,7 +11613,7 @@
         <v>2.3936170212765959</v>
       </c>
     </row>
-    <row r="91" spans="10:19">
+    <row r="91" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J91" s="1">
         <v>87</v>
       </c>
@@ -11623,7 +11649,7 @@
         <v>2.4456521739130435</v>
       </c>
     </row>
-    <row r="92" spans="10:19">
+    <row r="92" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J92" s="1">
         <v>88</v>
       </c>
@@ -11659,7 +11685,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="93" spans="10:19">
+    <row r="93" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J93" s="1">
         <v>89</v>
       </c>
@@ -11695,7 +11721,7 @@
         <v>1.6853932584269662</v>
       </c>
     </row>
-    <row r="94" spans="10:19">
+    <row r="94" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J94" s="1">
         <v>90</v>
       </c>
@@ -11731,7 +11757,7 @@
         <v>0.85470085470085466</v>
       </c>
     </row>
-    <row r="95" spans="10:19">
+    <row r="95" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J95" s="1">
         <v>91</v>
       </c>
@@ -11767,7 +11793,7 @@
         <v>0.87209302325581395</v>
       </c>
     </row>
-    <row r="96" spans="10:19">
+    <row r="96" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J96" s="1">
         <v>92</v>
       </c>
@@ -11803,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="10:19">
+    <row r="97" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J97" s="1">
         <v>93</v>
       </c>
@@ -11839,7 +11865,7 @@
         <v>0.29850746268656714</v>
       </c>
     </row>
-    <row r="98" spans="10:19">
+    <row r="98" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J98" s="1">
         <v>94</v>
       </c>
@@ -11875,7 +11901,7 @@
         <v>0.303951367781155</v>
       </c>
     </row>
-    <row r="99" spans="10:19">
+    <row r="99" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J99" s="1">
         <v>95</v>
       </c>
@@ -11911,7 +11937,7 @@
         <v>0.6116207951070336</v>
       </c>
     </row>
-    <row r="100" spans="10:19">
+    <row r="100" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J100" s="1">
         <v>96</v>
       </c>
@@ -11947,7 +11973,7 @@
         <v>0.30959752321981426</v>
       </c>
     </row>
-    <row r="101" spans="10:19">
+    <row r="101" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J101" s="1">
         <v>97</v>
       </c>
@@ -11983,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="10:19">
+    <row r="102" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J102" s="1">
         <v>98</v>
       </c>
@@ -12019,7 +12045,7 @@
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="103" spans="10:19">
+    <row r="103" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J103" s="1">
         <v>99</v>
       </c>
@@ -12055,7 +12081,7 @@
         <v>0.64308681672025725</v>
       </c>
     </row>
-    <row r="104" spans="10:19">
+    <row r="104" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J104" s="1">
         <v>100</v>
       </c>
@@ -12091,7 +12117,7 @@
         <v>0.32467532467532467</v>
       </c>
     </row>
-    <row r="105" spans="10:19">
+    <row r="105" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J105" s="1">
         <v>101</v>
       </c>
@@ -12127,7 +12153,7 @@
         <v>0.32679738562091504</v>
       </c>
     </row>
-    <row r="106" spans="10:19">
+    <row r="106" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J106" s="1">
         <v>102</v>
       </c>
@@ -12163,7 +12189,7 @@
         <v>0.33003300330033003</v>
       </c>
     </row>
-    <row r="107" spans="10:19">
+    <row r="107" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J107" s="1">
         <v>103</v>
       </c>
@@ -12199,7 +12225,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="108" spans="10:19">
+    <row r="108" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J108" s="1">
         <v>104</v>
       </c>
@@ -12235,7 +12261,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="109" spans="10:19">
+    <row r="109" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J109" s="1">
         <v>105</v>
       </c>
@@ -12271,7 +12297,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="110" spans="10:19">
+    <row r="110" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J110" s="1">
         <v>106</v>
       </c>
@@ -12307,7 +12333,7 @@
         <v>1.7123287671232876</v>
       </c>
     </row>
-    <row r="111" spans="10:19">
+    <row r="111" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J111" s="1">
         <v>107</v>
       </c>
@@ -12343,7 +12369,7 @@
         <v>1.7361111111111112</v>
       </c>
     </row>
-    <row r="112" spans="10:19">
+    <row r="112" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J112" s="1">
         <v>108</v>
       </c>
@@ -12379,7 +12405,7 @@
         <v>2.0979020979020979</v>
       </c>
     </row>
-    <row r="113" spans="10:19">
+    <row r="113" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J113" s="1">
         <v>109</v>
       </c>
@@ -12415,7 +12441,7 @@
         <v>2.464788732394366</v>
       </c>
     </row>
-    <row r="114" spans="10:19">
+    <row r="114" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J114" s="1">
         <v>110</v>
       </c>
@@ -12451,7 +12477,7 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
-    <row r="115" spans="10:19">
+    <row r="115" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J115" s="1">
         <v>111</v>
       </c>
@@ -12487,7 +12513,7 @@
         <v>1.8115942028985508</v>
       </c>
     </row>
-    <row r="116" spans="10:19">
+    <row r="116" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J116" s="1">
         <v>112</v>
       </c>
@@ -12523,7 +12549,7 @@
         <v>2.1897810218978102</v>
       </c>
     </row>
-    <row r="117" spans="10:19">
+    <row r="117" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J117" s="1">
         <v>113</v>
       </c>
@@ -12559,7 +12585,7 @@
         <v>1.8450184501845019</v>
       </c>
     </row>
-    <row r="118" spans="10:19">
+    <row r="118" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J118" s="1">
         <v>114</v>
       </c>
@@ -12595,7 +12621,7 @@
         <v>1.8656716417910448</v>
       </c>
     </row>
-    <row r="119" spans="10:19">
+    <row r="119" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J119" s="1">
         <v>115</v>
       </c>
@@ -12631,7 +12657,7 @@
         <v>1.5094339622641511</v>
       </c>
     </row>
-    <row r="120" spans="10:19">
+    <row r="120" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J120" s="1">
         <v>116</v>
       </c>
@@ -12667,7 +12693,7 @@
         <v>1.1450381679389312</v>
       </c>
     </row>
-    <row r="121" spans="10:19">
+    <row r="121" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J121" s="1">
         <v>117</v>
       </c>
@@ -12703,7 +12729,7 @@
         <v>0.77220077220077221</v>
       </c>
     </row>
-    <row r="122" spans="10:19">
+    <row r="122" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J122" s="1">
         <v>118</v>
       </c>
@@ -12739,7 +12765,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="123" spans="10:19">
+    <row r="123" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J123" s="1">
         <v>119</v>
       </c>
@@ -12775,7 +12801,7 @@
         <v>0.39525691699604742</v>
       </c>
     </row>
-    <row r="124" spans="10:19">
+    <row r="124" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J124" s="1">
         <v>120</v>
       </c>
@@ -12811,7 +12837,7 @@
         <v>0.79051383399209485</v>
       </c>
     </row>
-    <row r="125" spans="10:19">
+    <row r="125" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J125" s="1">
         <v>121</v>
       </c>
@@ -12847,7 +12873,7 @@
         <v>0.79365079365079361</v>
       </c>
     </row>
-    <row r="126" spans="10:19">
+    <row r="126" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J126" s="1">
         <v>122</v>
       </c>
@@ -12883,7 +12909,7 @@
         <v>1.1904761904761905</v>
       </c>
     </row>
-    <row r="127" spans="10:19">
+    <row r="127" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J127" s="1">
         <v>123</v>
       </c>
@@ -12919,7 +12945,7 @@
         <v>1.1952191235059761</v>
       </c>
     </row>
-    <row r="128" spans="10:19">
+    <row r="128" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J128" s="1">
         <v>124</v>
       </c>
@@ -12955,7 +12981,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="10:19">
+    <row r="129" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J129" s="1">
         <v>125</v>
       </c>
@@ -12991,7 +13017,7 @@
         <v>4.0160642570281126</v>
       </c>
     </row>
-    <row r="130" spans="10:19">
+    <row r="130" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J130" s="1">
         <v>126</v>
       </c>
@@ -13027,7 +13053,7 @@
         <v>4.032258064516129</v>
       </c>
     </row>
-    <row r="131" spans="10:19">
+    <row r="131" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J131" s="1">
         <v>127</v>
       </c>
@@ -13063,7 +13089,7 @@
         <v>3.6437246963562755</v>
       </c>
     </row>
-    <row r="132" spans="10:19">
+    <row r="132" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J132" s="1">
         <v>128</v>
       </c>
@@ -13099,7 +13125,7 @@
         <v>3.2388663967611335</v>
       </c>
     </row>
-    <row r="133" spans="10:19">
+    <row r="133" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J133" s="1">
         <v>129</v>
       </c>
@@ -13135,7 +13161,7 @@
         <v>2.834008097165992</v>
       </c>
     </row>
-    <row r="134" spans="10:19">
+    <row r="134" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J134" s="1">
         <v>130</v>
       </c>
@@ -13171,7 +13197,7 @@
         <v>3.2520325203252032</v>
       </c>
     </row>
-    <row r="135" spans="10:19">
+    <row r="135" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J135" s="1">
         <v>131</v>
       </c>
@@ -13207,7 +13233,7 @@
         <v>4.0650406504065044</v>
       </c>
     </row>
-    <row r="136" spans="10:19">
+    <row r="136" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J136" s="1">
         <v>132</v>
       </c>
@@ -13243,7 +13269,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="137" spans="10:19">
+    <row r="137" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J137" s="1">
         <v>133</v>
       </c>
@@ -13279,7 +13305,7 @@
         <v>4.4897959183673466</v>
       </c>
     </row>
-    <row r="138" spans="10:19">
+    <row r="138" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J138" s="1">
         <v>134</v>
       </c>
@@ -13315,7 +13341,7 @@
         <v>4.5081967213114753</v>
       </c>
     </row>
-    <row r="139" spans="10:19">
+    <row r="139" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J139" s="1">
         <v>135</v>
       </c>
@@ -13351,7 +13377,7 @@
         <v>4.5267489711934159</v>
       </c>
     </row>
-    <row r="140" spans="10:19">
+    <row r="140" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J140" s="1">
         <v>136</v>
       </c>
@@ -13387,7 +13413,7 @@
         <v>4.1322314049586772</v>
       </c>
     </row>
-    <row r="141" spans="10:19">
+    <row r="141" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J141" s="1">
         <v>137</v>
       </c>
@@ -13423,7 +13449,7 @@
         <v>3.7344398340248963</v>
       </c>
     </row>
-    <row r="142" spans="10:19">
+    <row r="142" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J142" s="1">
         <v>138</v>
       </c>
@@ -13459,7 +13485,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="143" spans="10:19">
+    <row r="143" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J143" s="1">
         <v>139</v>
       </c>
@@ -13495,7 +13521,7 @@
         <v>1.6736401673640167</v>
       </c>
     </row>
-    <row r="144" spans="10:19">
+    <row r="144" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J144" s="1">
         <v>140</v>
       </c>
@@ -13531,7 +13557,7 @@
         <v>0.42016806722689076</v>
       </c>
     </row>
-    <row r="145" spans="10:19">
+    <row r="145" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J145" s="1">
         <v>141</v>
       </c>
@@ -13567,7 +13593,7 @@
         <v>1.271186440677966</v>
       </c>
     </row>
-    <row r="146" spans="10:19">
+    <row r="146" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J146" s="1">
         <v>142</v>
       </c>
@@ -13603,7 +13629,7 @@
         <v>0.85470085470085466</v>
       </c>
     </row>
-    <row r="147" spans="10:19">
+    <row r="147" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J147" s="1">
         <v>143</v>
       </c>
@@ -13639,7 +13665,7 @@
         <v>1.7021276595744681</v>
       </c>
     </row>
-    <row r="148" spans="10:19">
+    <row r="148" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J148" s="1">
         <v>144</v>
       </c>
@@ -13675,7 +13701,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="149" spans="10:19">
+    <row r="149" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J149" s="1">
         <v>145</v>
       </c>
@@ -13711,7 +13737,7 @@
         <v>0.85836909871244638</v>
       </c>
     </row>
-    <row r="150" spans="10:19">
+    <row r="150" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J150" s="1">
         <v>146</v>
       </c>
@@ -13747,7 +13773,7 @@
         <v>0.43103448275862066</v>
       </c>
     </row>
-    <row r="151" spans="10:19">
+    <row r="151" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J151" s="1">
         <v>147</v>
       </c>
@@ -13783,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="10:19">
+    <row r="152" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J152" s="1">
         <v>148</v>
       </c>
@@ -13819,7 +13845,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="153" spans="10:19">
+    <row r="153" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J153" s="1">
         <v>149</v>
       </c>
@@ -13855,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="10:19">
+    <row r="154" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J154" s="1">
         <v>150</v>
       </c>
@@ -13891,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="10:19">
+    <row r="155" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J155" s="1">
         <v>151</v>
       </c>
@@ -13927,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="10:19">
+    <row r="156" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J156" s="1">
         <v>152</v>
       </c>
@@ -13963,7 +13989,7 @@
         <v>0.85470085470085466</v>
       </c>
     </row>
-    <row r="157" spans="10:19">
+    <row r="157" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J157" s="1">
         <v>153</v>
       </c>
@@ -13999,7 +14025,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="158" spans="10:19">
+    <row r="158" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J158" s="1">
         <v>154</v>
       </c>
@@ -14035,7 +14061,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="159" spans="10:19">
+    <row r="159" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J159" s="1">
         <v>155</v>
       </c>
@@ -14071,7 +14097,7 @@
         <v>1.4423076923076923</v>
       </c>
     </row>
-    <row r="160" spans="10:19">
+    <row r="160" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J160" s="1">
         <v>156</v>
       </c>
@@ -14107,7 +14133,7 @@
         <v>1.4423076923076923</v>
       </c>
     </row>
-    <row r="161" spans="10:19">
+    <row r="161" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J161" s="1">
         <v>157</v>
       </c>
@@ -14143,7 +14169,7 @@
         <v>2.4038461538461537</v>
       </c>
     </row>
-    <row r="162" spans="10:19">
+    <row r="162" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J162" s="1">
         <v>158</v>
       </c>
@@ -14179,7 +14205,7 @@
         <v>2.3923444976076556</v>
       </c>
     </row>
-    <row r="163" spans="10:19">
+    <row r="163" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J163" s="1">
         <v>159</v>
       </c>
@@ -14215,7 +14241,7 @@
         <v>2.3923444976076556</v>
       </c>
     </row>
-    <row r="164" spans="10:19">
+    <row r="164" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J164" s="1">
         <v>160</v>
       </c>
@@ -14251,7 +14277,7 @@
         <v>3.8277511961722488</v>
       </c>
     </row>
-    <row r="165" spans="10:19">
+    <row r="165" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J165" s="1">
         <v>161</v>
       </c>
@@ -14287,7 +14313,7 @@
         <v>4.3062200956937797</v>
       </c>
     </row>
-    <row r="166" spans="10:19">
+    <row r="166" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J166" s="1">
         <v>162</v>
       </c>
@@ -14323,7 +14349,7 @@
         <v>3.8277511961722488</v>
       </c>
     </row>
-    <row r="167" spans="10:19">
+    <row r="167" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J167" s="1">
         <v>163</v>
       </c>
@@ -14359,7 +14385,7 @@
         <v>1.9138755980861244</v>
       </c>
     </row>
-    <row r="168" spans="10:19">
+    <row r="168" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J168" s="1">
         <v>164</v>
       </c>
@@ -14395,7 +14421,7 @@
         <v>1.9047619047619047</v>
       </c>
     </row>
-    <row r="169" spans="10:19">
+    <row r="169" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J169" s="1">
         <v>165</v>
       </c>
@@ -14431,7 +14457,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="170" spans="10:19">
+    <row r="170" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J170" s="1">
         <v>166</v>
       </c>
@@ -14467,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="10:19">
+    <row r="171" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J171" s="1">
         <v>167</v>
       </c>
@@ -14503,7 +14529,7 @@
         <v>0.47393364928909953</v>
       </c>
     </row>
-    <row r="172" spans="10:19">
+    <row r="172" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J172" s="1">
         <v>168</v>
       </c>
@@ -14539,7 +14565,7 @@
         <v>2.8301886792452828</v>
       </c>
     </row>
-    <row r="173" spans="10:19">
+    <row r="173" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J173" s="1">
         <v>169</v>
       </c>
@@ -14575,7 +14601,7 @@
         <v>3.2863849765258215</v>
       </c>
     </row>
-    <row r="174" spans="10:19">
+    <row r="174" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J174" s="1">
         <v>170</v>
       </c>
@@ -14611,7 +14637,7 @@
         <v>3.755868544600939</v>
       </c>
     </row>
-    <row r="175" spans="10:19">
+    <row r="175" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J175" s="1">
         <v>171</v>
       </c>
@@ -14647,7 +14673,7 @@
         <v>3.7383177570093458</v>
       </c>
     </row>
-    <row r="176" spans="10:19">
+    <row r="176" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J176" s="1">
         <v>172</v>
       </c>
@@ -14683,7 +14709,7 @@
         <v>3.7383177570093458</v>
       </c>
     </row>
-    <row r="177" spans="10:19">
+    <row r="177" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J177" s="1">
         <v>173</v>
       </c>
@@ -14719,7 +14745,7 @@
         <v>3.2710280373831777</v>
       </c>
     </row>
-    <row r="178" spans="10:19">
+    <row r="178" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J178" s="1">
         <v>174</v>
       </c>
@@ -14755,7 +14781,7 @@
         <v>4.1860465116279073</v>
       </c>
     </row>
-    <row r="179" spans="10:19">
+    <row r="179" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J179" s="1">
         <v>175</v>
       </c>
@@ -14791,7 +14817,7 @@
         <v>3.2558139534883721</v>
       </c>
     </row>
-    <row r="180" spans="10:19">
+    <row r="180" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J180" s="1">
         <v>176</v>
       </c>
@@ -14827,7 +14853,7 @@
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="181" spans="10:19">
+    <row r="181" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J181" s="1">
         <v>177</v>
       </c>
@@ -14863,7 +14889,7 @@
         <v>2.3255813953488373</v>
       </c>
     </row>
-    <row r="182" spans="10:19">
+    <row r="182" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J182" s="1">
         <v>178</v>
       </c>
@@ -14899,7 +14925,7 @@
         <v>1.8518518518518519</v>
       </c>
     </row>
-    <row r="183" spans="10:19">
+    <row r="183" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J183" s="1">
         <v>179</v>
       </c>
@@ -14935,7 +14961,7 @@
         <v>1.8433179723502304</v>
       </c>
     </row>
-    <row r="184" spans="10:19">
+    <row r="184" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J184" s="1">
         <v>180</v>
       </c>
@@ -14971,7 +14997,7 @@
         <v>1.834862385321101</v>
       </c>
     </row>
-    <row r="185" spans="10:19">
+    <row r="185" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J185" s="1">
         <v>181</v>
       </c>
@@ -15007,7 +15033,7 @@
         <v>2.2624434389140271</v>
       </c>
     </row>
-    <row r="186" spans="10:19">
+    <row r="186" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J186" s="1">
         <v>182</v>
       </c>
@@ -15043,7 +15069,7 @@
         <v>4.4444444444444446</v>
       </c>
     </row>
-    <row r="187" spans="10:19">
+    <row r="187" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J187" s="1">
         <v>183</v>
       </c>
@@ -15079,7 +15105,7 @@
         <v>6.5217391304347823</v>
       </c>
     </row>
-    <row r="188" spans="10:19">
+    <row r="188" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J188" s="1">
         <v>184</v>
       </c>
@@ -15115,7 +15141,7 @@
         <v>5.6034482758620694</v>
       </c>
     </row>
-    <row r="189" spans="10:19">
+    <row r="189" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J189" s="1">
         <v>185</v>
       </c>
@@ -15151,7 +15177,7 @@
         <v>6.3829787234042552</v>
       </c>
     </row>
-    <row r="190" spans="10:19">
+    <row r="190" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J190" s="1">
         <v>186</v>
       </c>
@@ -15187,7 +15213,7 @@
         <v>6.3025210084033612</v>
       </c>
     </row>
-    <row r="191" spans="10:19">
+    <row r="191" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J191" s="1">
         <v>187</v>
       </c>
@@ -15223,7 +15249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="10:19">
+    <row r="192" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J192" s="1">
         <v>188</v>
       </c>
@@ -15259,7 +15285,7 @@
         <v>4.4897959183673466</v>
       </c>
     </row>
-    <row r="193" spans="10:19">
+    <row r="193" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J193" s="1">
         <v>189</v>
       </c>
@@ -15295,7 +15321,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="194" spans="10:19">
+    <row r="194" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J194" s="1">
         <v>190</v>
       </c>
@@ -15331,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="10:19">
+    <row r="195" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J195" s="1">
         <v>191</v>
       </c>
@@ -15367,7 +15393,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="196" spans="10:19">
+    <row r="196" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J196" s="1">
         <v>192</v>
       </c>
@@ -15403,7 +15429,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="197" spans="10:19">
+    <row r="197" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J197" s="1">
         <v>193</v>
       </c>
@@ -15439,7 +15465,7 @@
         <v>5.9027777777777777</v>
       </c>
     </row>
-    <row r="198" spans="10:19">
+    <row r="198" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J198" s="1">
         <v>194</v>
       </c>
@@ -15475,7 +15501,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="199" spans="10:19">
+    <row r="199" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J199" s="1">
         <v>195</v>
       </c>
@@ -15511,7 +15537,7 @@
         <v>2.8662420382165603</v>
       </c>
     </row>
-    <row r="200" spans="10:19">
+    <row r="200" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J200" s="1">
         <v>196</v>
       </c>
@@ -15547,7 +15573,7 @@
         <v>2.1341463414634148</v>
       </c>
     </row>
-    <row r="201" spans="10:19">
+    <row r="201" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J201" s="1">
         <v>197</v>
       </c>
@@ -15583,7 +15609,7 @@
         <v>1.1764705882352942</v>
       </c>
     </row>
-    <row r="202" spans="10:19">
+    <row r="202" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J202" s="1">
         <v>198</v>
       </c>
@@ -15619,7 +15645,7 @@
         <v>3.4285714285714284</v>
       </c>
     </row>
-    <row r="203" spans="10:19">
+    <row r="203" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J203" s="1">
         <v>199</v>
       </c>
@@ -15655,7 +15681,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="204" spans="10:19">
+    <row r="204" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J204" s="1">
         <v>200</v>
       </c>
@@ -15691,7 +15717,7 @@
         <v>1.0810810810810811</v>
       </c>
     </row>
-    <row r="205" spans="10:19">
+    <row r="205" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J205" s="1">
         <v>201</v>
       </c>
@@ -15727,7 +15753,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="206" spans="10:19">
+    <row r="206" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J206" s="1">
         <v>202</v>
       </c>
@@ -15763,7 +15789,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="207" spans="10:19">
+    <row r="207" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J207" s="1">
         <v>203</v>
       </c>
@@ -15799,7 +15825,7 @@
         <v>1.256281407035176</v>
       </c>
     </row>
-    <row r="208" spans="10:19">
+    <row r="208" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J208" s="1">
         <v>204</v>
       </c>
@@ -15835,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="10:19">
+    <row r="209" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J209" s="1">
         <v>205</v>
       </c>
@@ -15871,7 +15897,7 @@
         <v>1.4563106796116505</v>
       </c>
     </row>
-    <row r="210" spans="10:19">
+    <row r="210" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J210" s="1">
         <v>206</v>
       </c>
@@ -15907,7 +15933,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="211" spans="10:19">
+    <row r="211" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J211" s="1">
         <v>207</v>
       </c>
@@ -15943,7 +15969,7 @@
         <v>0.93457943925233644</v>
       </c>
     </row>
-    <row r="212" spans="10:19">
+    <row r="212" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J212" s="1">
         <v>208</v>
       </c>
@@ -15979,7 +16005,7 @@
         <v>1.1547344110854503</v>
       </c>
     </row>
-    <row r="213" spans="10:19">
+    <row r="213" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J213" s="1">
         <v>209</v>
       </c>
@@ -16015,7 +16041,7 @@
         <v>1.1415525114155252</v>
       </c>
     </row>
-    <row r="214" spans="10:19">
+    <row r="214" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J214" s="1">
         <v>210</v>
       </c>
@@ -16051,7 +16077,7 @@
         <v>0.2247191011235955</v>
       </c>
     </row>
-    <row r="215" spans="10:19">
+    <row r="215" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J215" s="1">
         <v>211</v>
       </c>
@@ -16087,7 +16113,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="216" spans="10:19">
+    <row r="216" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J216" s="1">
         <v>212</v>
       </c>
@@ -16123,7 +16149,7 @@
         <v>0.66079295154185025</v>
       </c>
     </row>
-    <row r="217" spans="10:19">
+    <row r="217" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J217" s="1">
         <v>213</v>
       </c>
@@ -16159,7 +16185,7 @@
         <v>0.43763676148796499</v>
       </c>
     </row>
-    <row r="218" spans="10:19">
+    <row r="218" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J218" s="1">
         <v>214</v>
       </c>
@@ -16195,7 +16221,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="219" spans="10:19">
+    <row r="219" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J219" s="1">
         <v>215</v>
       </c>
@@ -16231,7 +16257,7 @@
         <v>0.86021505376344087</v>
       </c>
     </row>
-    <row r="220" spans="10:19">
+    <row r="220" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J220" s="1">
         <v>216</v>
       </c>
@@ -16267,7 +16293,7 @@
         <v>1.2875536480686696</v>
       </c>
     </row>
-    <row r="221" spans="10:19">
+    <row r="221" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J221" s="1">
         <v>217</v>
       </c>
@@ -16303,7 +16329,7 @@
         <v>1.2847965738758029</v>
       </c>
     </row>
-    <row r="222" spans="10:19">
+    <row r="222" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J222" s="1">
         <v>218</v>
       </c>
@@ -16339,7 +16365,7 @@
         <v>1.279317697228145</v>
       </c>
     </row>
-    <row r="223" spans="10:19">
+    <row r="223" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J223" s="1">
         <v>219</v>
       </c>
@@ -16375,7 +16401,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="224" spans="10:19">
+    <row r="224" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J224" s="1">
         <v>220</v>
       </c>
@@ -16411,7 +16437,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="225" spans="10:19">
+    <row r="225" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J225" s="1">
         <v>221</v>
       </c>
@@ -16447,7 +16473,7 @@
         <v>0.84925690021231426</v>
       </c>
     </row>
-    <row r="226" spans="10:19">
+    <row r="226" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J226" s="1">
         <v>222</v>
       </c>
@@ -16483,7 +16509,7 @@
         <v>0.84925690021231426</v>
       </c>
     </row>
-    <row r="227" spans="10:19">
+    <row r="227" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J227" s="1">
         <v>223</v>
       </c>
@@ -16519,7 +16545,7 @@
         <v>0.63694267515923564</v>
       </c>
     </row>
-    <row r="228" spans="10:19">
+    <row r="228" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J228" s="1">
         <v>224</v>
       </c>
@@ -16555,7 +16581,7 @@
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="229" spans="10:19">
+    <row r="229" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J229" s="1">
         <v>225</v>
       </c>
@@ -16591,7 +16617,7 @@
         <v>0.21276595744680851</v>
       </c>
     </row>
-    <row r="230" spans="10:19">
+    <row r="230" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J230" s="1">
         <v>226</v>
       </c>
@@ -16627,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="10:19">
+    <row r="231" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J231" s="1">
         <v>227</v>
       </c>
@@ -16663,7 +16689,7 @@
         <v>0.21321961620469082</v>
       </c>
     </row>
-    <row r="232" spans="10:19">
+    <row r="232" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J232" s="1">
         <v>228</v>
       </c>
@@ -16699,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="10:19">
+    <row r="233" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J233" s="1">
         <v>229</v>
       </c>
@@ -16735,7 +16761,7 @@
         <v>0.42826552462526768</v>
       </c>
     </row>
-    <row r="234" spans="10:19">
+    <row r="234" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J234" s="1">
         <v>230</v>
       </c>
@@ -16771,7 +16797,7 @@
         <v>0.43010752688172044</v>
       </c>
     </row>
-    <row r="235" spans="10:19">
+    <row r="235" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J235" s="1">
         <v>231</v>
       </c>
@@ -16807,7 +16833,7 @@
         <v>0.21645021645021645</v>
       </c>
     </row>
-    <row r="236" spans="10:19">
+    <row r="236" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J236" s="1">
         <v>232</v>
       </c>
@@ -16843,7 +16869,7 @@
         <v>0.2178649237472767</v>
       </c>
     </row>
-    <row r="237" spans="10:19">
+    <row r="237" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J237" s="1">
         <v>233</v>
       </c>
@@ -16879,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="10:19">
+    <row r="238" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J238" s="1">
         <v>234</v>
       </c>
@@ -16915,7 +16941,7 @@
         <v>0.21978021978021978</v>
       </c>
     </row>
-    <row r="239" spans="10:19">
+    <row r="239" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J239" s="1">
         <v>235</v>
       </c>
@@ -16951,7 +16977,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="240" spans="10:19">
+    <row r="240" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J240" s="1">
         <v>236</v>
       </c>
@@ -16987,7 +17013,7 @@
         <v>0.22371364653243847</v>
       </c>
     </row>
-    <row r="241" spans="10:19">
+    <row r="241" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J241" s="1">
         <v>237</v>
       </c>
@@ -17023,7 +17049,7 @@
         <v>0.22522522522522523</v>
       </c>
     </row>
-    <row r="242" spans="10:19">
+    <row r="242" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J242" s="1">
         <v>238</v>
       </c>
@@ -17059,7 +17085,7 @@
         <v>0.22675736961451248</v>
       </c>
     </row>
-    <row r="243" spans="10:19">
+    <row r="243" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J243" s="1">
         <v>239</v>
       </c>
@@ -17095,7 +17121,7 @@
         <v>0.2288329519450801</v>
       </c>
     </row>
-    <row r="244" spans="10:19">
+    <row r="244" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J244" s="1">
         <v>240</v>
       </c>
@@ -17131,7 +17157,7 @@
         <v>0.23094688221709006</v>
       </c>
     </row>
-    <row r="245" spans="10:19">
+    <row r="245" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J245" s="1">
         <v>241</v>
       </c>
@@ -17167,7 +17193,7 @@
         <v>0.23255813953488372</v>
       </c>
     </row>
-    <row r="246" spans="10:19">
+    <row r="246" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J246" s="1">
         <v>242</v>
       </c>
@@ -17203,7 +17229,7 @@
         <v>0.23419203747072601</v>
       </c>
     </row>
-    <row r="247" spans="10:19">
+    <row r="247" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J247" s="1">
         <v>243</v>
       </c>
@@ -17239,7 +17265,7 @@
         <v>1.179245283018868</v>
       </c>
     </row>
-    <row r="248" spans="10:19">
+    <row r="248" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J248" s="1">
         <v>244</v>
       </c>
@@ -17275,7 +17301,7 @@
         <v>1.9047619047619047</v>
       </c>
     </row>
-    <row r="249" spans="10:19">
+    <row r="249" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J249" s="1">
         <v>245</v>
       </c>
@@ -17311,7 +17337,7 @@
         <v>2.6378896882494005</v>
       </c>
     </row>
-    <row r="250" spans="10:19">
+    <row r="250" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J250" s="1">
         <v>246</v>
       </c>
@@ -17347,7 +17373,7 @@
         <v>3.3898305084745761</v>
       </c>
     </row>
-    <row r="251" spans="10:19">
+    <row r="251" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J251" s="1">
         <v>247</v>
       </c>
@@ -17383,7 +17409,7 @@
         <v>4.8780487804878048</v>
       </c>
     </row>
-    <row r="252" spans="10:19">
+    <row r="252" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J252" s="1">
         <v>248</v>
       </c>
@@ -17419,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="10:19">
+    <row r="253" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J253" s="1">
         <v>249</v>
       </c>
@@ -17455,7 +17481,7 @@
         <v>1.9950124688279303</v>
       </c>
     </row>
-    <row r="254" spans="10:19">
+    <row r="254" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J254" s="1">
         <v>250</v>
       </c>
@@ -17491,7 +17517,7 @@
         <v>1.0075566750629723</v>
       </c>
     </row>
-    <row r="255" spans="10:19">
+    <row r="255" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J255" s="1">
         <v>251</v>
       </c>
@@ -17527,7 +17553,7 @@
         <v>0.76335877862595425</v>
       </c>
     </row>
-    <row r="256" spans="10:19">
+    <row r="256" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J256" s="1">
         <v>252</v>
       </c>
@@ -17563,7 +17589,7 @@
         <v>0.25641025641025639</v>
       </c>
     </row>
-    <row r="257" spans="10:19">
+    <row r="257" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J257" s="1">
         <v>253</v>
       </c>
@@ -17599,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="10:19">
+    <row r="258" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J258" s="1">
         <v>254</v>
       </c>
@@ -17635,7 +17661,7 @@
         <v>0.26246719160104987</v>
       </c>
     </row>
-    <row r="259" spans="10:19">
+    <row r="259" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J259" s="1">
         <v>255</v>
       </c>
@@ -17671,7 +17697,7 @@
         <v>2.3872679045092839</v>
       </c>
     </row>
-    <row r="260" spans="10:19">
+    <row r="260" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J260" s="1">
         <v>256</v>
       </c>
@@ -17707,7 +17733,7 @@
         <v>1.6042780748663101</v>
       </c>
     </row>
-    <row r="261" spans="10:19">
+    <row r="261" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J261" s="1">
         <v>257</v>
       </c>
@@ -17743,7 +17769,7 @@
         <v>1.6216216216216217</v>
       </c>
     </row>
-    <row r="262" spans="10:19">
+    <row r="262" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J262" s="1">
         <v>258</v>
       </c>
@@ -17779,7 +17805,7 @@
         <v>1.9178082191780821</v>
       </c>
     </row>
-    <row r="263" spans="10:19">
+    <row r="263" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J263" s="1">
         <v>259</v>
       </c>
@@ -17815,7 +17841,7 @@
         <v>1.9390581717451523</v>
       </c>
     </row>
-    <row r="264" spans="10:19">
+    <row r="264" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J264" s="1">
         <v>260</v>
       </c>
@@ -17851,7 +17877,7 @@
         <v>1.680672268907563</v>
       </c>
     </row>
-    <row r="265" spans="10:19">
+    <row r="265" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J265" s="1">
         <v>261</v>
       </c>
@@ -17887,7 +17913,7 @@
         <v>2.2662889518413598</v>
       </c>
     </row>
-    <row r="266" spans="10:19">
+    <row r="266" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J266" s="1">
         <v>262</v>
       </c>
@@ -17923,7 +17949,7 @@
         <v>2.5787965616045847</v>
       </c>
     </row>
-    <row r="267" spans="10:19">
+    <row r="267" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J267" s="1">
         <v>263</v>
       </c>
@@ -17959,7 +17985,7 @@
         <v>2.0289855072463769</v>
       </c>
     </row>
-    <row r="268" spans="10:19">
+    <row r="268" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J268" s="1">
         <v>264</v>
       </c>
@@ -17995,7 +18021,7 @@
         <v>2.0527859237536656</v>
       </c>
     </row>
-    <row r="269" spans="10:19">
+    <row r="269" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J269" s="1">
         <v>265</v>
       </c>
@@ -18031,7 +18057,7 @@
         <v>1.7804154302670623</v>
       </c>
     </row>
-    <row r="270" spans="10:19">
+    <row r="270" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J270" s="1">
         <v>266</v>
       </c>
@@ -18067,7 +18093,7 @@
         <v>1.5015015015015014</v>
       </c>
     </row>
-    <row r="271" spans="10:19">
+    <row r="271" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J271" s="1">
         <v>267</v>
       </c>
@@ -18103,7 +18129,7 @@
         <v>0.6097560975609756</v>
       </c>
     </row>
-    <row r="272" spans="10:19">
+    <row r="272" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J272" s="1">
         <v>268</v>
       </c>
@@ -18139,7 +18165,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="273" spans="10:19">
+    <row r="273" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J273" s="1">
         <v>269</v>
       </c>
@@ -18175,7 +18201,7 @@
         <v>0.6211180124223602</v>
       </c>
     </row>
-    <row r="274" spans="10:19">
+    <row r="274" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J274" s="1">
         <v>270</v>
       </c>
@@ -18211,7 +18237,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="275" spans="10:19">
+    <row r="275" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J275" s="1">
         <v>271</v>
       </c>
@@ -18247,7 +18273,7 @@
         <v>0.63091482649842268</v>
       </c>
     </row>
-    <row r="276" spans="10:19">
+    <row r="276" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J276" s="1">
         <v>272</v>
       </c>
@@ -18283,7 +18309,7 @@
         <v>0.63492063492063489</v>
       </c>
     </row>
-    <row r="277" spans="10:19">
+    <row r="277" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J277" s="1">
         <v>273</v>
       </c>
@@ -18319,7 +18345,7 @@
         <v>0.95846645367412142</v>
       </c>
     </row>
-    <row r="278" spans="10:19">
+    <row r="278" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J278" s="1">
         <v>274</v>
       </c>
@@ -18355,7 +18381,7 @@
         <v>1.2861736334405145</v>
       </c>
     </row>
-    <row r="279" spans="10:19">
+    <row r="279" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J279" s="1">
         <v>275</v>
       </c>
@@ -18391,7 +18417,7 @@
         <v>1.6181229773462784</v>
       </c>
     </row>
-    <row r="280" spans="10:19">
+    <row r="280" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J280" s="1">
         <v>276</v>
       </c>
@@ -18427,7 +18453,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="281" spans="10:19">
+    <row r="281" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J281" s="1">
         <v>277</v>
       </c>
@@ -18463,7 +18489,7 @@
         <v>2.9315960912052117</v>
       </c>
     </row>
-    <row r="282" spans="10:19">
+    <row r="282" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J282" s="1">
         <v>278</v>
       </c>
@@ -18499,7 +18525,7 @@
         <v>3.278688524590164</v>
       </c>
     </row>
-    <row r="283" spans="10:19">
+    <row r="283" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J283" s="1">
         <v>279</v>
       </c>
@@ -18535,7 +18561,7 @@
         <v>3.3003300330033003</v>
       </c>
     </row>
-    <row r="284" spans="10:19">
+    <row r="284" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J284" s="1">
         <v>280</v>
       </c>
@@ -18571,7 +18597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="10:19">
+    <row r="285" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J285" s="1">
         <v>281</v>
       </c>
@@ -18607,7 +18633,7 @@
         <v>3.0201342281879193</v>
       </c>
     </row>
-    <row r="286" spans="10:19">
+    <row r="286" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J286" s="1">
         <v>282</v>
       </c>
@@ -18643,7 +18669,7 @@
         <v>3.0405405405405403</v>
       </c>
     </row>
-    <row r="287" spans="10:19">
+    <row r="287" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J287" s="1">
         <v>283</v>
       </c>
@@ -18679,7 +18705,7 @@
         <v>3.0612244897959182</v>
       </c>
     </row>
-    <row r="288" spans="10:19">
+    <row r="288" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J288" s="1">
         <v>284</v>
       </c>
@@ -18715,7 +18741,7 @@
         <v>3.4013605442176869</v>
       </c>
     </row>
-    <row r="289" spans="10:19">
+    <row r="289" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J289" s="1">
         <v>285</v>
       </c>
@@ -18751,7 +18777,7 @@
         <v>3.7542662116040955</v>
       </c>
     </row>
-    <row r="290" spans="10:19">
+    <row r="290" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J290" s="1">
         <v>286</v>
       </c>
@@ -18787,7 +18813,7 @@
         <v>3.7800687285223367</v>
       </c>
     </row>
-    <row r="291" spans="10:19">
+    <row r="291" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J291" s="1">
         <v>287</v>
       </c>
@@ -18823,7 +18849,7 @@
         <v>4.8109965635738829</v>
       </c>
     </row>
-    <row r="292" spans="10:19">
+    <row r="292" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J292" s="1">
         <v>288</v>
       </c>
@@ -18859,7 +18885,7 @@
         <v>5.1724137931034484</v>
       </c>
     </row>
-    <row r="293" spans="10:19">
+    <row r="293" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J293" s="1">
         <v>289</v>
       </c>
@@ -18895,7 +18921,7 @@
         <v>5.208333333333333</v>
       </c>
     </row>
-    <row r="294" spans="10:19">
+    <row r="294" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J294" s="1">
         <v>290</v>
       </c>
@@ -18931,7 +18957,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="295" spans="10:19">
+    <row r="295" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J295" s="1">
         <v>291</v>
       </c>
@@ -18967,7 +18993,7 @@
         <v>5.5172413793103452</v>
       </c>
     </row>
-    <row r="296" spans="10:19">
+    <row r="296" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J296" s="1">
         <v>292</v>
       </c>
@@ -19003,7 +19029,7 @@
         <v>5.7823129251700678</v>
       </c>
     </row>
-    <row r="297" spans="10:19">
+    <row r="297" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J297" s="1">
         <v>293</v>
       </c>
@@ -19039,7 +19065,7 @@
         <v>7.6158940397350996</v>
       </c>
     </row>
-    <row r="298" spans="10:19">
+    <row r="298" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J298" s="1">
         <v>294</v>
       </c>
@@ -19075,7 +19101,7 @@
         <v>7.7922077922077921</v>
       </c>
     </row>
-    <row r="299" spans="10:19">
+    <row r="299" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J299" s="1">
         <v>295</v>
       </c>
@@ -19111,7 +19137,7 @@
         <v>5.3968253968253972</v>
       </c>
     </row>
-    <row r="300" spans="10:19">
+    <row r="300" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J300" s="1">
         <v>296</v>
       </c>
@@ -19147,7 +19173,7 @@
         <v>5.9006211180124222</v>
       </c>
     </row>
-    <row r="301" spans="10:19">
+    <row r="301" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J301" s="1">
         <v>297</v>
       </c>
@@ -19183,7 +19209,7 @@
         <v>4.5871559633027523</v>
       </c>
     </row>
-    <row r="302" spans="10:19">
+    <row r="302" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J302" s="1">
         <v>298</v>
       </c>
@@ -19219,7 +19245,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="303" spans="10:19">
+    <row r="303" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J303" s="1">
         <v>299</v>
       </c>
@@ -19255,7 +19281,7 @@
         <v>0.60060060060060061</v>
       </c>
     </row>
-    <row r="304" spans="10:19">
+    <row r="304" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J304" s="1">
         <v>300</v>
       </c>
@@ -19291,7 +19317,7 @@
         <v>3.6036036036036037</v>
       </c>
     </row>
-    <row r="305" spans="10:19">
+    <row r="305" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J305" s="1">
         <v>301</v>
       </c>
@@ -19327,7 +19353,7 @@
         <v>4.833836858006042</v>
       </c>
     </row>
-    <row r="306" spans="10:19">
+    <row r="306" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J306" s="1">
         <v>302</v>
       </c>
@@ -19363,7 +19389,7 @@
         <v>5.1829268292682924</v>
       </c>
     </row>
-    <row r="307" spans="10:19">
+    <row r="307" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J307" s="1">
         <v>303</v>
       </c>
@@ -19399,7 +19425,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="308" spans="10:19">
+    <row r="308" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J308" s="1">
         <v>304</v>
       </c>
@@ -19435,7 +19461,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="309" spans="10:19">
+    <row r="309" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J309" s="1">
         <v>305</v>
       </c>
@@ -19471,7 +19497,7 @@
         <v>1.5527950310559007</v>
       </c>
     </row>
-    <row r="310" spans="10:19">
+    <row r="310" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J310" s="1">
         <v>306</v>
       </c>
@@ -19507,7 +19533,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="311" spans="10:19">
+    <row r="311" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J311" s="1">
         <v>307</v>
       </c>
@@ -19543,7 +19569,7 @@
         <v>3.1545741324921135</v>
       </c>
     </row>
-    <row r="312" spans="10:19">
+    <row r="312" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J312" s="1">
         <v>308</v>
       </c>
@@ -19579,7 +19605,7 @@
         <v>3.1746031746031744</v>
       </c>
     </row>
-    <row r="313" spans="10:19">
+    <row r="313" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J313" s="1">
         <v>309</v>
       </c>
@@ -19615,7 +19641,7 @@
         <v>2.2580645161290325</v>
       </c>
     </row>
-    <row r="314" spans="10:19">
+    <row r="314" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J314" s="1">
         <v>310</v>
       </c>
@@ -19651,7 +19677,7 @@
         <v>1.9543973941368078</v>
       </c>
     </row>
-    <row r="315" spans="10:19">
+    <row r="315" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J315" s="1">
         <v>311</v>
       </c>
@@ -19687,7 +19713,7 @@
         <v>1.9672131147540983</v>
       </c>
     </row>
-    <row r="316" spans="10:19">
+    <row r="316" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J316" s="1">
         <v>312</v>
       </c>

--- a/Assignment 1/final_plot-learn.xlsx
+++ b/Assignment 1/final_plot-learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8F3F49-85EE-4943-B1CD-8816E5291780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E6A95-18D0-4144-93E1-4863093CA2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +215,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +424,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -512,6 +552,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA8D08D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA8D08D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA8D08D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA8D08D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -557,13 +626,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5879,16 +5960,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8268,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9785,7 +9866,7 @@
       </c>
       <c r="E43">
         <f>SUM(F45,G46)*100/SUM(F45:G46)</f>
-        <v>98</v>
+        <v>79.5</v>
       </c>
       <c r="J43" s="1">
         <v>39</v>
@@ -9834,7 +9915,7 @@
       </c>
       <c r="E44">
         <f>SUM(F49,G50)*100/SUM(F49:G50)</f>
-        <v>97.5</v>
+        <v>79</v>
       </c>
       <c r="F44">
         <v>0.1</v>
@@ -9874,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>1</v>
       </c>
@@ -9886,13 +9967,13 @@
       </c>
       <c r="E45">
         <f>SUM(F53,G54)*100/SUM(F53:G54)</f>
-        <v>94.5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>98</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2</v>
+        <v>75.5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>80</v>
+      </c>
+      <c r="G45" s="7">
+        <v>20</v>
       </c>
       <c r="J45" s="1">
         <v>41</v>
@@ -9929,7 +10010,7 @@
         <v>0.42735042735042733</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>1.5</v>
       </c>
@@ -9941,13 +10022,13 @@
       </c>
       <c r="E46">
         <f>SUM(F57,G58)*100/SUM(F57:G58)</f>
-        <v>96</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>98</v>
+        <v>72.5</v>
+      </c>
+      <c r="F46" s="8">
+        <v>21</v>
+      </c>
+      <c r="G46" s="9">
+        <v>79</v>
       </c>
       <c r="J46" s="1">
         <v>42</v>
@@ -10059,12 +10140,12 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F49" s="1">
-        <v>97</v>
-      </c>
-      <c r="G49" s="1">
-        <v>3</v>
+    <row r="49" spans="6:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="6">
+        <v>78</v>
+      </c>
+      <c r="G49" s="7">
+        <v>22</v>
       </c>
       <c r="J49" s="1">
         <v>45</v>
@@ -10101,12 +10182,12 @@
         <v>0.41841004184100417</v>
       </c>
     </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F50" s="1">
-        <v>2</v>
-      </c>
-      <c r="G50" s="1">
-        <v>98</v>
+    <row r="50" spans="6:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="8">
+        <v>20</v>
+      </c>
+      <c r="G50" s="9">
+        <v>80</v>
       </c>
       <c r="J50" s="1">
         <v>46</v>
@@ -10218,12 +10299,12 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="53" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F53" s="1">
-        <v>94</v>
-      </c>
-      <c r="G53" s="1">
-        <v>6</v>
+    <row r="53" spans="6:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="6">
+        <v>72</v>
+      </c>
+      <c r="G53" s="7">
+        <v>28</v>
       </c>
       <c r="J53" s="1">
         <v>49</v>
@@ -10260,12 +10341,12 @@
         <v>0.82304526748971196</v>
       </c>
     </row>
-    <row r="54" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F54" s="1">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>95</v>
+    <row r="54" spans="6:19" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="8">
+        <v>21</v>
+      </c>
+      <c r="G54" s="9">
+        <v>79</v>
       </c>
       <c r="J54" s="1">
         <v>50</v>
@@ -10379,10 +10460,10 @@
     </row>
     <row r="57" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F57" s="1">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G57" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J57" s="1">
         <v>53</v>
@@ -10421,10 +10502,10 @@
     </row>
     <row r="58" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F58" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="J58" s="1">
         <v>54</v>

--- a/Assignment 1/final_plot-learn.xlsx
+++ b/Assignment 1/final_plot-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E6A95-18D0-4144-93E1-4863093CA2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC24733-160C-4EA4-8939-151BB2E19A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -5830,16 +5830,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98.787400000000005</c:v>
+                  <c:v>84.787400000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.851700000000008</c:v>
+                  <c:v>83.851699999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.578800000000001</c:v>
+                  <c:v>81.578800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.490800000000007</c:v>
+                  <c:v>79.490799999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8349,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9859,7 +9859,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="4">
-        <v>98.787400000000005</v>
+        <v>84.787400000000005</v>
       </c>
       <c r="D43" s="1">
         <v>97.878265418887992</v>
@@ -9908,7 +9908,7 @@
         <v>0.5</v>
       </c>
       <c r="C44" s="4">
-        <v>98.851700000000008</v>
+        <v>83.851699999999994</v>
       </c>
       <c r="D44" s="1">
         <v>97.473976060424917</v>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4">
-        <v>98.578800000000001</v>
+        <v>81.578800000000001</v>
       </c>
       <c r="D45" s="1">
         <v>97.271382661052769</v>
@@ -10015,7 +10015,7 @@
         <v>1.5</v>
       </c>
       <c r="C46" s="4">
-        <v>98.490800000000007</v>
+        <v>79.490799999999993</v>
       </c>
       <c r="D46" s="1">
         <v>97.060577023989651</v>
